--- a/dep.xlsx
+++ b/dep.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayous\OneDrive\Bureau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PC-GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41AD8E8-AED9-4D98-982C-EB2BB274BAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC7F23B-50ED-49E3-B7FB-0A1670BCD361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="621">
   <si>
     <t>Inscription Taha Ilyas</t>
   </si>
@@ -1904,6 +1904,15 @@
   </si>
   <si>
     <t xml:space="preserve">frais ecole fontaine </t>
+  </si>
+  <si>
+    <t>ophtalmo taha et ilyas</t>
+  </si>
+  <si>
+    <t>opticien ilyas yasmine</t>
+  </si>
+  <si>
+    <t>ophtalmo et rihla yasmine</t>
   </si>
 </sst>
 </file>
@@ -2321,7 +2330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2591,6 +2600,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2901,12 +2917,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N367"/>
+  <dimension ref="A1:N373"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1572" topLeftCell="A354" activePane="bottomLeft"/>
+      <pane ySplit="1572" topLeftCell="A367" activePane="bottomLeft"/>
       <selection activeCell="J2" sqref="J2"/>
-      <selection pane="bottomLeft" activeCell="C369" sqref="C369"/>
+      <selection pane="bottomLeft" activeCell="D376" sqref="D376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11082,7 +11098,7 @@
         <v>1</v>
       </c>
       <c r="E363" s="51">
-        <f t="shared" ref="E363:E367" si="60">C363/D363</f>
+        <f t="shared" ref="E363:E366" si="60">C363/D363</f>
         <v>400</v>
       </c>
       <c r="F363" s="51"/>
@@ -11112,7 +11128,7 @@
       <c r="F364" s="51"/>
       <c r="G364" s="6"/>
       <c r="H364" s="10">
-        <f t="shared" ref="H364:H367" si="61">H363+E364-F364</f>
+        <f t="shared" ref="H364:H373" si="61">H363+E364-F364</f>
         <v>7600</v>
       </c>
     </row>
@@ -11141,47 +11157,193 @@
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A366" s="11" t="s">
+      <c r="A366" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="B366" s="5">
+      <c r="B366" s="167">
         <v>45628</v>
       </c>
-      <c r="C366" s="51">
+      <c r="C366" s="168">
         <v>375</v>
       </c>
-      <c r="D366" s="51">
-        <v>2</v>
-      </c>
-      <c r="E366" s="51">
+      <c r="D366" s="168">
+        <v>2</v>
+      </c>
+      <c r="E366" s="168">
         <f t="shared" si="60"/>
         <v>187.5</v>
       </c>
-      <c r="F366" s="51"/>
-      <c r="G366" s="6"/>
-      <c r="H366" s="10">
+      <c r="F366" s="168"/>
+      <c r="G366" s="165"/>
+      <c r="H366" s="169">
         <f t="shared" si="61"/>
         <v>8287.5</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A367" s="6"/>
-      <c r="B367" s="6"/>
-      <c r="C367" s="51">
+      <c r="A367" s="165" t="s">
+        <v>511</v>
+      </c>
+      <c r="B367" s="165"/>
+      <c r="C367" s="168">
         <v>5000</v>
       </c>
-      <c r="D367" s="51">
+      <c r="D367" s="168">
         <v>1</v>
       </c>
-      <c r="E367" s="51"/>
-      <c r="F367" s="51">
+      <c r="E367" s="168"/>
+      <c r="F367" s="168">
         <f>C367/D367</f>
         <v>5000</v>
       </c>
-      <c r="G367" s="6"/>
+      <c r="G367" s="165"/>
       <c r="H367" s="35">
         <f t="shared" si="61"/>
         <v>3287.5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A368" s="165" t="s">
+        <v>617</v>
+      </c>
+      <c r="B368" s="167">
+        <v>45293</v>
+      </c>
+      <c r="C368" s="168">
+        <v>3700</v>
+      </c>
+      <c r="D368" s="168">
+        <v>2</v>
+      </c>
+      <c r="E368" s="168">
+        <f>C368/D368</f>
+        <v>1850</v>
+      </c>
+      <c r="F368" s="168"/>
+      <c r="G368" s="165"/>
+      <c r="H368" s="169">
+        <f t="shared" si="61"/>
+        <v>5137.5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A369" s="165" t="s">
+        <v>607</v>
+      </c>
+      <c r="B369" s="167">
+        <v>45293</v>
+      </c>
+      <c r="C369" s="168">
+        <v>2000</v>
+      </c>
+      <c r="D369" s="168">
+        <v>2</v>
+      </c>
+      <c r="E369" s="168">
+        <f>C369/D369</f>
+        <v>1000</v>
+      </c>
+      <c r="F369" s="168"/>
+      <c r="G369" s="165"/>
+      <c r="H369" s="169">
+        <f t="shared" si="61"/>
+        <v>6137.5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A370" s="166" t="s">
+        <v>170</v>
+      </c>
+      <c r="B370" s="167">
+        <v>45293</v>
+      </c>
+      <c r="C370" s="168">
+        <v>375</v>
+      </c>
+      <c r="D370" s="168">
+        <v>2</v>
+      </c>
+      <c r="E370" s="168">
+        <f>C370/D370</f>
+        <v>187.5</v>
+      </c>
+      <c r="F370" s="168"/>
+      <c r="G370" s="165"/>
+      <c r="H370" s="169">
+        <f t="shared" si="61"/>
+        <v>6325</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A371" s="165" t="s">
+        <v>620</v>
+      </c>
+      <c r="B371" s="167">
+        <v>45293</v>
+      </c>
+      <c r="C371" s="168">
+        <v>470</v>
+      </c>
+      <c r="D371" s="168">
+        <v>2</v>
+      </c>
+      <c r="E371" s="168"/>
+      <c r="F371" s="168">
+        <f>C371/D371</f>
+        <v>235</v>
+      </c>
+      <c r="G371" s="165"/>
+      <c r="H371" s="169">
+        <f t="shared" si="61"/>
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A372" s="165" t="s">
+        <v>618</v>
+      </c>
+      <c r="B372" s="167">
+        <v>45293</v>
+      </c>
+      <c r="C372" s="168">
+        <v>400</v>
+      </c>
+      <c r="D372" s="168">
+        <v>2</v>
+      </c>
+      <c r="E372" s="168">
+        <f>C372/D372</f>
+        <v>200</v>
+      </c>
+      <c r="F372" s="168"/>
+      <c r="G372" s="165"/>
+      <c r="H372" s="169">
+        <f t="shared" si="61"/>
+        <v>6290</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A373" s="165" t="s">
+        <v>619</v>
+      </c>
+      <c r="B373" s="167">
+        <v>45293</v>
+      </c>
+      <c r="C373" s="168">
+        <v>550</v>
+      </c>
+      <c r="D373" s="168">
+        <v>2</v>
+      </c>
+      <c r="E373" s="168">
+        <f>C373/D373</f>
+        <v>275</v>
+      </c>
+      <c r="F373" s="168"/>
+      <c r="G373" s="165"/>
+      <c r="H373" s="169">
+        <f t="shared" si="61"/>
+        <v>6565</v>
       </c>
     </row>
   </sheetData>

--- a/dep.xlsx
+++ b/dep.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PC-GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC7F23B-50ED-49E3-B7FB-0A1670BCD361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF77B698-603E-4729-BB77-037853760CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="622">
   <si>
     <t>Inscription Taha Ilyas</t>
   </si>
@@ -1913,6 +1913,9 @@
   </si>
   <si>
     <t>ophtalmo et rihla yasmine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC </t>
   </si>
 </sst>
 </file>
@@ -2330,7 +2333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2601,12 +2604,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2917,12 +2914,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N373"/>
+  <dimension ref="A1:N379"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1572" topLeftCell="A367" activePane="bottomLeft"/>
-      <selection activeCell="J2" sqref="J2"/>
-      <selection pane="bottomLeft" activeCell="D376" sqref="D376"/>
+      <pane ySplit="1572" topLeftCell="A377" activePane="bottomLeft"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E383" sqref="E383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11128,7 +11125,7 @@
       <c r="F364" s="51"/>
       <c r="G364" s="6"/>
       <c r="H364" s="10">
-        <f t="shared" ref="H364:H373" si="61">H363+E364-F364</f>
+        <f t="shared" ref="H364:H379" si="61">H363+E364-F364</f>
         <v>7600</v>
       </c>
     </row>
@@ -11157,193 +11154,329 @@
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A366" s="166" t="s">
+      <c r="A366" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B366" s="167">
+      <c r="B366" s="5">
         <v>45628</v>
       </c>
-      <c r="C366" s="168">
+      <c r="C366" s="51">
         <v>375</v>
       </c>
-      <c r="D366" s="168">
-        <v>2</v>
-      </c>
-      <c r="E366" s="168">
+      <c r="D366" s="51">
+        <v>2</v>
+      </c>
+      <c r="E366" s="51">
         <f t="shared" si="60"/>
         <v>187.5</v>
       </c>
-      <c r="F366" s="168"/>
-      <c r="G366" s="165"/>
-      <c r="H366" s="169">
+      <c r="F366" s="51"/>
+      <c r="G366" s="6"/>
+      <c r="H366" s="10">
         <f t="shared" si="61"/>
         <v>8287.5</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A367" s="165" t="s">
+      <c r="A367" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="B367" s="165"/>
-      <c r="C367" s="168">
+      <c r="B367" s="6"/>
+      <c r="C367" s="51">
         <v>5000</v>
       </c>
-      <c r="D367" s="168">
+      <c r="D367" s="51">
         <v>1</v>
       </c>
-      <c r="E367" s="168"/>
-      <c r="F367" s="168">
+      <c r="E367" s="51"/>
+      <c r="F367" s="51">
         <f>C367/D367</f>
         <v>5000</v>
       </c>
-      <c r="G367" s="165"/>
+      <c r="G367" s="6"/>
       <c r="H367" s="35">
         <f t="shared" si="61"/>
         <v>3287.5</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A368" s="165" t="s">
+      <c r="A368" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="B368" s="167">
+      <c r="B368" s="5">
         <v>45293</v>
       </c>
-      <c r="C368" s="168">
+      <c r="C368" s="51">
         <v>3700</v>
       </c>
-      <c r="D368" s="168">
-        <v>2</v>
-      </c>
-      <c r="E368" s="168">
+      <c r="D368" s="51">
+        <v>2</v>
+      </c>
+      <c r="E368" s="51">
         <f>C368/D368</f>
         <v>1850</v>
       </c>
-      <c r="F368" s="168"/>
-      <c r="G368" s="165"/>
-      <c r="H368" s="169">
+      <c r="F368" s="51"/>
+      <c r="G368" s="6"/>
+      <c r="H368" s="10">
         <f t="shared" si="61"/>
         <v>5137.5</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A369" s="165" t="s">
+      <c r="A369" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="B369" s="167">
+      <c r="B369" s="5">
         <v>45293</v>
       </c>
-      <c r="C369" s="168">
+      <c r="C369" s="51">
         <v>2000</v>
       </c>
-      <c r="D369" s="168">
-        <v>2</v>
-      </c>
-      <c r="E369" s="168">
+      <c r="D369" s="51">
+        <v>2</v>
+      </c>
+      <c r="E369" s="51">
         <f>C369/D369</f>
         <v>1000</v>
       </c>
-      <c r="F369" s="168"/>
-      <c r="G369" s="165"/>
-      <c r="H369" s="169">
+      <c r="F369" s="51"/>
+      <c r="G369" s="6"/>
+      <c r="H369" s="10">
         <f t="shared" si="61"/>
         <v>6137.5</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A370" s="166" t="s">
+      <c r="A370" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B370" s="167">
+      <c r="B370" s="5">
         <v>45293</v>
       </c>
-      <c r="C370" s="168">
+      <c r="C370" s="51">
         <v>375</v>
       </c>
-      <c r="D370" s="168">
-        <v>2</v>
-      </c>
-      <c r="E370" s="168">
+      <c r="D370" s="51">
+        <v>2</v>
+      </c>
+      <c r="E370" s="51">
         <f>C370/D370</f>
         <v>187.5</v>
       </c>
-      <c r="F370" s="168"/>
-      <c r="G370" s="165"/>
-      <c r="H370" s="169">
+      <c r="F370" s="51"/>
+      <c r="G370" s="6"/>
+      <c r="H370" s="10">
         <f t="shared" si="61"/>
         <v>6325</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A371" s="165" t="s">
+      <c r="A371" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="B371" s="167">
+      <c r="B371" s="5">
         <v>45293</v>
       </c>
-      <c r="C371" s="168">
+      <c r="C371" s="51">
         <v>470</v>
       </c>
-      <c r="D371" s="168">
-        <v>2</v>
-      </c>
-      <c r="E371" s="168"/>
-      <c r="F371" s="168">
+      <c r="D371" s="51">
+        <v>2</v>
+      </c>
+      <c r="E371" s="51"/>
+      <c r="F371" s="51">
         <f>C371/D371</f>
         <v>235</v>
       </c>
-      <c r="G371" s="165"/>
-      <c r="H371" s="169">
+      <c r="G371" s="6"/>
+      <c r="H371" s="10">
         <f t="shared" si="61"/>
         <v>6090</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A372" s="165" t="s">
+      <c r="A372" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="B372" s="167">
+      <c r="B372" s="5">
         <v>45293</v>
       </c>
-      <c r="C372" s="168">
+      <c r="C372" s="51">
         <v>400</v>
       </c>
-      <c r="D372" s="168">
-        <v>2</v>
-      </c>
-      <c r="E372" s="168">
+      <c r="D372" s="51">
+        <v>2</v>
+      </c>
+      <c r="E372" s="51">
         <f>C372/D372</f>
         <v>200</v>
       </c>
-      <c r="F372" s="168"/>
-      <c r="G372" s="165"/>
-      <c r="H372" s="169">
+      <c r="F372" s="51"/>
+      <c r="G372" s="6"/>
+      <c r="H372" s="10">
         <f t="shared" si="61"/>
         <v>6290</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A373" s="165" t="s">
+      <c r="A373" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="B373" s="167">
+      <c r="B373" s="5">
         <v>45293</v>
       </c>
-      <c r="C373" s="168">
+      <c r="C373" s="51">
         <v>550</v>
       </c>
-      <c r="D373" s="168">
-        <v>2</v>
-      </c>
-      <c r="E373" s="168">
+      <c r="D373" s="51">
+        <v>2</v>
+      </c>
+      <c r="E373" s="51">
         <f>C373/D373</f>
         <v>275</v>
       </c>
-      <c r="F373" s="168"/>
-      <c r="G373" s="165"/>
-      <c r="H373" s="169">
+      <c r="F373" s="51"/>
+      <c r="G373" s="6"/>
+      <c r="H373" s="10">
         <f t="shared" si="61"/>
         <v>6565</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A374" s="6"/>
+      <c r="B374" s="6"/>
+      <c r="C374" s="51">
+        <v>600</v>
+      </c>
+      <c r="D374" s="51">
+        <v>2</v>
+      </c>
+      <c r="E374" s="51"/>
+      <c r="F374" s="51">
+        <f>C374/D374</f>
+        <v>300</v>
+      </c>
+      <c r="G374" s="6"/>
+      <c r="H374" s="10">
+        <f t="shared" si="61"/>
+        <v>6265</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A375" s="165" t="s">
+        <v>621</v>
+      </c>
+      <c r="B375" s="6"/>
+      <c r="C375" s="51">
+        <v>4230</v>
+      </c>
+      <c r="D375" s="51">
+        <v>1</v>
+      </c>
+      <c r="E375" s="51">
+        <f>C375/D375</f>
+        <v>4230</v>
+      </c>
+      <c r="F375" s="51"/>
+      <c r="G375" s="6"/>
+      <c r="H375" s="10">
+        <f t="shared" si="61"/>
+        <v>10495</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A376" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B376" s="6"/>
+      <c r="C376" s="51">
+        <v>10495</v>
+      </c>
+      <c r="D376" s="51">
+        <v>1</v>
+      </c>
+      <c r="E376" s="51"/>
+      <c r="F376" s="51">
+        <f>C376/D376</f>
+        <v>10495</v>
+      </c>
+      <c r="G376" s="6"/>
+      <c r="H376" s="10">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A377" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="B377" s="5">
+        <v>45326</v>
+      </c>
+      <c r="C377" s="51">
+        <v>3700</v>
+      </c>
+      <c r="D377" s="51">
+        <v>2</v>
+      </c>
+      <c r="E377" s="51">
+        <f>C377/D377</f>
+        <v>1850</v>
+      </c>
+      <c r="F377" s="51"/>
+      <c r="G377" s="6"/>
+      <c r="H377" s="10">
+        <f t="shared" si="61"/>
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A378" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="B378" s="5">
+        <v>45323</v>
+      </c>
+      <c r="C378" s="51">
+        <v>1500</v>
+      </c>
+      <c r="D378" s="51">
+        <v>2</v>
+      </c>
+      <c r="E378" s="51">
+        <f t="shared" ref="E378:E379" si="62">C378/D378</f>
+        <v>750</v>
+      </c>
+      <c r="F378" s="51"/>
+      <c r="G378" s="6"/>
+      <c r="H378" s="10">
+        <f t="shared" si="61"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A379" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B379" s="5">
+        <v>45323</v>
+      </c>
+      <c r="C379" s="51">
+        <v>375</v>
+      </c>
+      <c r="D379" s="51">
+        <v>2</v>
+      </c>
+      <c r="E379" s="51">
+        <f t="shared" si="62"/>
+        <v>187.5</v>
+      </c>
+      <c r="F379" s="51"/>
+      <c r="G379" s="6"/>
+      <c r="H379" s="10">
+        <f t="shared" si="61"/>
+        <v>2787.5</v>
       </c>
     </row>
   </sheetData>

--- a/dep.xlsx
+++ b/dep.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PC-GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF77B698-603E-4729-BB77-037853760CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059EDB41-E581-4A16-B73A-6219A7B3A997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="624">
   <si>
     <t>Inscription Taha Ilyas</t>
   </si>
@@ -1916,6 +1916,12 @@
   </si>
   <si>
     <t xml:space="preserve">PC </t>
+  </si>
+  <si>
+    <t>pegnoire</t>
+  </si>
+  <si>
+    <t>Piscine yasmine</t>
   </si>
 </sst>
 </file>
@@ -2914,12 +2920,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N379"/>
+  <dimension ref="A1:N381"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1572" topLeftCell="A377" activePane="bottomLeft"/>
+      <pane ySplit="1572" topLeftCell="A376" activePane="bottomLeft"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="E383" sqref="E383"/>
+      <selection pane="bottomLeft" activeCell="C385" sqref="C385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11125,7 +11131,7 @@
       <c r="F364" s="51"/>
       <c r="G364" s="6"/>
       <c r="H364" s="10">
-        <f t="shared" ref="H364:H379" si="61">H363+E364-F364</f>
+        <f t="shared" ref="H364:H381" si="61">H363+E364-F364</f>
         <v>7600</v>
       </c>
     </row>
@@ -11364,7 +11370,7 @@
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A375" s="165" t="s">
+      <c r="A375" s="6" t="s">
         <v>621</v>
       </c>
       <c r="B375" s="6"/>
@@ -11477,6 +11483,54 @@
       <c r="H379" s="10">
         <f t="shared" si="61"/>
         <v>2787.5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A380" s="165" t="s">
+        <v>623</v>
+      </c>
+      <c r="B380" s="5">
+        <v>45323</v>
+      </c>
+      <c r="C380" s="51">
+        <v>2400</v>
+      </c>
+      <c r="D380" s="51">
+        <v>2</v>
+      </c>
+      <c r="E380" s="51"/>
+      <c r="F380" s="51">
+        <f>C380/D380</f>
+        <v>1200</v>
+      </c>
+      <c r="G380" s="6"/>
+      <c r="H380" s="10">
+        <f t="shared" si="61"/>
+        <v>1587.5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A381" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="B381" s="5">
+        <v>45323</v>
+      </c>
+      <c r="C381" s="51">
+        <v>300</v>
+      </c>
+      <c r="D381" s="51">
+        <v>2</v>
+      </c>
+      <c r="E381" s="51"/>
+      <c r="F381" s="51">
+        <f>C381/D381</f>
+        <v>150</v>
+      </c>
+      <c r="G381" s="6"/>
+      <c r="H381" s="10">
+        <f t="shared" si="61"/>
+        <v>1437.5</v>
       </c>
     </row>
   </sheetData>

--- a/dep.xlsx
+++ b/dep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PC-GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059EDB41-E581-4A16-B73A-6219A7B3A997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA04BCA3-3575-481C-B840-F908223CF8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="626">
   <si>
     <t>Inscription Taha Ilyas</t>
   </si>
@@ -1922,6 +1922,12 @@
   </si>
   <si>
     <t>Piscine yasmine</t>
+  </si>
+  <si>
+    <t>frais passeport taha</t>
+  </si>
+  <si>
+    <t>cartable yasmine</t>
   </si>
 </sst>
 </file>
@@ -2339,7 +2345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2609,6 +2615,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2920,12 +2927,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N381"/>
+  <dimension ref="A1:N387"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1572" topLeftCell="A376" activePane="bottomLeft"/>
+      <pane ySplit="1572" topLeftCell="A383" activePane="bottomLeft"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="C385" sqref="C385"/>
+      <selection pane="bottomLeft" activeCell="H390" sqref="H390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11131,7 +11138,7 @@
       <c r="F364" s="51"/>
       <c r="G364" s="6"/>
       <c r="H364" s="10">
-        <f t="shared" ref="H364:H381" si="61">H363+E364-F364</f>
+        <f t="shared" ref="H364:H387" si="61">H363+E364-F364</f>
         <v>7600</v>
       </c>
     </row>
@@ -11486,7 +11493,7 @@
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A380" s="165" t="s">
+      <c r="A380" s="6" t="s">
         <v>623</v>
       </c>
       <c r="B380" s="5">
@@ -11531,6 +11538,143 @@
       <c r="H381" s="10">
         <f t="shared" si="61"/>
         <v>1437.5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A382" s="165" t="s">
+        <v>625</v>
+      </c>
+      <c r="C382" s="60">
+        <v>650</v>
+      </c>
+      <c r="D382" s="51">
+        <v>2</v>
+      </c>
+      <c r="F382" s="51">
+        <f>C382/D382</f>
+        <v>325</v>
+      </c>
+      <c r="H382" s="10">
+        <f t="shared" si="61"/>
+        <v>1112.5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A383" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B383" s="6"/>
+      <c r="C383" s="51">
+        <v>1112.5</v>
+      </c>
+      <c r="D383" s="51">
+        <v>1</v>
+      </c>
+      <c r="E383" s="51"/>
+      <c r="F383" s="51">
+        <f>C383/D383</f>
+        <v>1112.5</v>
+      </c>
+      <c r="G383" s="6"/>
+      <c r="H383" s="10">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A384" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="B384" s="5">
+        <v>45356</v>
+      </c>
+      <c r="C384" s="51">
+        <v>3700</v>
+      </c>
+      <c r="D384" s="51">
+        <v>2</v>
+      </c>
+      <c r="E384" s="51">
+        <f t="shared" ref="E384:E387" si="63">C384/D384</f>
+        <v>1850</v>
+      </c>
+      <c r="F384" s="51"/>
+      <c r="G384" s="6"/>
+      <c r="H384" s="10">
+        <f t="shared" si="61"/>
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A385" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="B385" s="5">
+        <v>45356</v>
+      </c>
+      <c r="C385" s="51">
+        <v>1500</v>
+      </c>
+      <c r="D385" s="51">
+        <v>2</v>
+      </c>
+      <c r="E385" s="51">
+        <f t="shared" si="63"/>
+        <v>750</v>
+      </c>
+      <c r="F385" s="51"/>
+      <c r="G385" s="6"/>
+      <c r="H385" s="10">
+        <f t="shared" si="61"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A386" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B386" s="5">
+        <v>45356</v>
+      </c>
+      <c r="C386" s="51">
+        <v>375</v>
+      </c>
+      <c r="D386" s="51">
+        <v>2</v>
+      </c>
+      <c r="E386" s="51">
+        <f t="shared" si="63"/>
+        <v>187.5</v>
+      </c>
+      <c r="F386" s="51"/>
+      <c r="G386" s="6"/>
+      <c r="H386" s="10">
+        <f t="shared" si="61"/>
+        <v>2787.5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A387" s="166" t="s">
+        <v>624</v>
+      </c>
+      <c r="B387" s="5">
+        <v>45356</v>
+      </c>
+      <c r="C387" s="51">
+        <v>500</v>
+      </c>
+      <c r="D387" s="51">
+        <v>2</v>
+      </c>
+      <c r="E387" s="51">
+        <f t="shared" si="63"/>
+        <v>250</v>
+      </c>
+      <c r="F387" s="51"/>
+      <c r="G387" s="6"/>
+      <c r="H387" s="10">
+        <f t="shared" si="61"/>
+        <v>3037.5</v>
       </c>
     </row>
   </sheetData>

--- a/dep.xlsx
+++ b/dep.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PC-GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA04BCA3-3575-481C-B840-F908223CF8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF79C3F-A6E8-4BC2-A72E-166D2EEA679E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="636">
   <si>
     <t>Inscription Taha Ilyas</t>
   </si>
@@ -1928,6 +1928,36 @@
   </si>
   <si>
     <t>cartable yasmine</t>
+  </si>
+  <si>
+    <t>inscription ecole fontaine</t>
+  </si>
+  <si>
+    <t>produite mdec france</t>
+  </si>
+  <si>
+    <t>don</t>
+  </si>
+  <si>
+    <t>adidas 22-04-2025</t>
+  </si>
+  <si>
+    <t>lefties</t>
+  </si>
+  <si>
+    <t>ham</t>
+  </si>
+  <si>
+    <t>primark</t>
+  </si>
+  <si>
+    <t>yas</t>
+  </si>
+  <si>
+    <t>temu</t>
+  </si>
+  <si>
+    <t>pres</t>
   </si>
 </sst>
 </file>
@@ -2345,7 +2375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2615,7 +2645,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2927,12 +2956,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N387"/>
+  <dimension ref="A1:N401"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1572" topLeftCell="A383" activePane="bottomLeft"/>
+      <pane ySplit="1572" topLeftCell="A388" activePane="bottomLeft"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="H390" sqref="H390"/>
+      <selection pane="bottomLeft" activeCell="D403" sqref="D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11138,7 +11167,7 @@
       <c r="F364" s="51"/>
       <c r="G364" s="6"/>
       <c r="H364" s="10">
-        <f t="shared" ref="H364:H387" si="61">H363+E364-F364</f>
+        <f t="shared" ref="H364:H401" si="61">H363+E364-F364</f>
         <v>7600</v>
       </c>
     </row>
@@ -11541,7 +11570,7 @@
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A382" s="165" t="s">
+      <c r="A382" s="28" t="s">
         <v>625</v>
       </c>
       <c r="C382" s="60">
@@ -11595,7 +11624,7 @@
         <v>2</v>
       </c>
       <c r="E384" s="51">
-        <f t="shared" ref="E384:E387" si="63">C384/D384</f>
+        <f t="shared" ref="E384:E390" si="63">C384/D384</f>
         <v>1850</v>
       </c>
       <c r="F384" s="51"/>
@@ -11654,7 +11683,7 @@
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A387" s="166" t="s">
+      <c r="A387" s="6" t="s">
         <v>624</v>
       </c>
       <c r="B387" s="5">
@@ -11675,6 +11704,334 @@
       <c r="H387" s="10">
         <f t="shared" si="61"/>
         <v>3037.5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A388" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B388" s="6"/>
+      <c r="C388" s="51">
+        <v>3037.5</v>
+      </c>
+      <c r="D388" s="51">
+        <v>1</v>
+      </c>
+      <c r="E388" s="51"/>
+      <c r="F388" s="51">
+        <f>C388/D388</f>
+        <v>3037.5</v>
+      </c>
+      <c r="G388" s="6"/>
+      <c r="H388" s="10">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A389" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="B389" s="5">
+        <v>45383</v>
+      </c>
+      <c r="C389" s="51">
+        <v>3700</v>
+      </c>
+      <c r="D389" s="51">
+        <v>2</v>
+      </c>
+      <c r="E389" s="51">
+        <f t="shared" si="63"/>
+        <v>1850</v>
+      </c>
+      <c r="F389" s="51"/>
+      <c r="G389" s="6"/>
+      <c r="H389" s="10">
+        <f t="shared" si="61"/>
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A390" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="B390" s="5">
+        <v>45383</v>
+      </c>
+      <c r="C390" s="51">
+        <v>4900</v>
+      </c>
+      <c r="D390" s="51">
+        <v>2</v>
+      </c>
+      <c r="E390" s="51">
+        <f t="shared" si="63"/>
+        <v>2450</v>
+      </c>
+      <c r="F390" s="51"/>
+      <c r="G390" s="6"/>
+      <c r="H390" s="10">
+        <f t="shared" si="61"/>
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A391" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="B391" s="5">
+        <v>45384</v>
+      </c>
+      <c r="C391" s="51">
+        <v>1500</v>
+      </c>
+      <c r="D391" s="51">
+        <v>2</v>
+      </c>
+      <c r="E391" s="51">
+        <f>C391/D391</f>
+        <v>750</v>
+      </c>
+      <c r="F391" s="51"/>
+      <c r="G391" s="6"/>
+      <c r="H391" s="10">
+        <f t="shared" si="61"/>
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A392" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B392" s="5">
+        <v>45385</v>
+      </c>
+      <c r="C392" s="51">
+        <v>375</v>
+      </c>
+      <c r="D392" s="51">
+        <v>2</v>
+      </c>
+      <c r="E392" s="51">
+        <f>C392/D392</f>
+        <v>187.5</v>
+      </c>
+      <c r="F392" s="51"/>
+      <c r="G392" s="6"/>
+      <c r="H392" s="10">
+        <f t="shared" si="61"/>
+        <v>5237.5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A393" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B393" s="6"/>
+      <c r="C393" s="10">
+        <v>5237.5</v>
+      </c>
+      <c r="D393" s="51">
+        <v>1</v>
+      </c>
+      <c r="E393" s="51"/>
+      <c r="F393" s="51">
+        <f>C393/D393</f>
+        <v>5237.5</v>
+      </c>
+      <c r="G393" s="6"/>
+      <c r="H393" s="10">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A394" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="B394" s="5">
+        <v>45417</v>
+      </c>
+      <c r="C394" s="51">
+        <v>3700</v>
+      </c>
+      <c r="D394" s="51">
+        <v>2</v>
+      </c>
+      <c r="E394" s="51">
+        <f>C394/D394</f>
+        <v>1850</v>
+      </c>
+      <c r="F394" s="51"/>
+      <c r="G394" s="6"/>
+      <c r="H394" s="10">
+        <f t="shared" si="61"/>
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A395" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="B395" s="5">
+        <v>45417</v>
+      </c>
+      <c r="C395" s="51">
+        <v>1000</v>
+      </c>
+      <c r="D395" s="51">
+        <v>2</v>
+      </c>
+      <c r="E395" s="51">
+        <f t="shared" ref="E395:E401" si="64">C395/D395</f>
+        <v>500</v>
+      </c>
+      <c r="F395" s="51"/>
+      <c r="G395" s="6"/>
+      <c r="H395" s="10">
+        <f t="shared" si="61"/>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A396" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B396" s="5">
+        <v>45417</v>
+      </c>
+      <c r="C396" s="51">
+        <v>375</v>
+      </c>
+      <c r="D396" s="51">
+        <v>2</v>
+      </c>
+      <c r="E396" s="51">
+        <f t="shared" si="64"/>
+        <v>187.5</v>
+      </c>
+      <c r="F396" s="51"/>
+      <c r="G396" s="6"/>
+      <c r="H396" s="10">
+        <f t="shared" si="61"/>
+        <v>2537.5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A397" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="B397" s="5">
+        <v>45417</v>
+      </c>
+      <c r="C397" s="51">
+        <v>1840</v>
+      </c>
+      <c r="D397" s="51">
+        <v>1</v>
+      </c>
+      <c r="E397" s="51">
+        <f t="shared" si="64"/>
+        <v>1840</v>
+      </c>
+      <c r="F397" s="51"/>
+      <c r="G397" s="6"/>
+      <c r="H397" s="10">
+        <f t="shared" si="61"/>
+        <v>4377.5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A398" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B398" s="6"/>
+      <c r="C398" s="51">
+        <v>4377.5</v>
+      </c>
+      <c r="D398" s="51">
+        <v>1</v>
+      </c>
+      <c r="E398" s="51"/>
+      <c r="F398" s="51">
+        <f>C398/D398</f>
+        <v>4377.5</v>
+      </c>
+      <c r="G398" s="6"/>
+      <c r="H398" s="10">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A399" s="165" t="s">
+        <v>635</v>
+      </c>
+      <c r="B399" s="6"/>
+      <c r="C399" s="51">
+        <v>200</v>
+      </c>
+      <c r="D399" s="51">
+        <v>1</v>
+      </c>
+      <c r="E399" s="51">
+        <f t="shared" si="64"/>
+        <v>200</v>
+      </c>
+      <c r="F399" s="51"/>
+      <c r="G399" s="6"/>
+      <c r="H399" s="10">
+        <f t="shared" si="61"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A400" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="B400" s="5">
+        <v>45444</v>
+      </c>
+      <c r="C400" s="51">
+        <v>1500</v>
+      </c>
+      <c r="D400" s="51">
+        <v>2</v>
+      </c>
+      <c r="E400" s="51">
+        <f t="shared" si="64"/>
+        <v>750</v>
+      </c>
+      <c r="F400" s="51"/>
+      <c r="G400" s="6"/>
+      <c r="H400" s="10">
+        <f t="shared" si="61"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A401" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B401" s="5">
+        <v>45444</v>
+      </c>
+      <c r="C401" s="51">
+        <v>375</v>
+      </c>
+      <c r="D401" s="51">
+        <v>2</v>
+      </c>
+      <c r="E401" s="51">
+        <f t="shared" si="64"/>
+        <v>187.5</v>
+      </c>
+      <c r="F401" s="51"/>
+      <c r="G401" s="6"/>
+      <c r="H401" s="10">
+        <f t="shared" si="61"/>
+        <v>1137.5</v>
       </c>
     </row>
   </sheetData>
@@ -15352,10 +15709,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A2:E48"/>
+  <dimension ref="A2:E57"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16029,6 +16386,62 @@
       <c r="E48">
         <f>C48-D48</f>
         <v>1800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>628</v>
+      </c>
+      <c r="B51">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>629</v>
+      </c>
+      <c r="B52">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>630</v>
+      </c>
+      <c r="B53">
+        <v>31.98</v>
+      </c>
+      <c r="C53" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>34.07</v>
+      </c>
+      <c r="C54" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>13.98</v>
+      </c>
+      <c r="D55" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>632</v>
+      </c>
+      <c r="D56" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>634</v>
       </c>
     </row>
   </sheetData>
